--- a/data/case1/18/Q1_14.xlsx
+++ b/data/case1/18/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.28482934603188426</v>
+        <v>0.24779303665832941</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999880879784</v>
+        <v>-0.0059999999889406297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999890287796</v>
+        <v>-0.0039999999900377503</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999801838584</v>
+        <v>-0.0079999999817861323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999880852002</v>
+        <v>-0.0029999999893028928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999864026563</v>
+        <v>-0.0070344481689268434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999711299914</v>
+        <v>-0.0034663864201136541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999704247777</v>
+        <v>-0.0099999999738829004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999845707883</v>
+        <v>-0.001999999987994272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999838518079</v>
+        <v>-0.0019999999881470387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999819745327</v>
+        <v>-0.0029999999863958848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0070420990269024486</v>
+        <v>-0.0034999999855651609</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999797573622</v>
+        <v>-0.0034999999861238251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999710027581</v>
+        <v>-0.0079999999784927667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999998387367839</v>
+        <v>-0.00099999999118516314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999817983394</v>
+        <v>0.032464233503575635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999814848124</v>
+        <v>-0.0019999999897608589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999776547668</v>
+        <v>-0.0039999999861910496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.017367210799529076</v>
+        <v>-0.050828603997919775</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999870357072</v>
+        <v>-0.0039999999916968676</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.07265600487933721</v>
+        <v>-0.0039999999916116025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999859681168</v>
+        <v>-0.0039999999915458773</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999865582012</v>
+        <v>-0.0049999999877732293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999957387438</v>
+        <v>-0.019999999960449877</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999956843872</v>
+        <v>-0.019999999959969372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999850763288</v>
+        <v>-0.0024999999867016953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999844208531</v>
+        <v>-0.0024999999860115807</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999828606008</v>
+        <v>-0.0019999999838598015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999717351713</v>
+        <v>-0.006999999972808979</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999871890086</v>
+        <v>-0.059999999878677546</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999709544625</v>
+        <v>-0.0069999999708656446</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999654674099</v>
+        <v>-0.0099999999654691862</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.021009570333745842</v>
+        <v>-0.0039999999759281479</v>
       </c>
     </row>
   </sheetData>
